--- a/data/03031.xlsx
+++ b/data/03031.xlsx
@@ -422,8 +422,10 @@
           <t>2020-03-23</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>3031</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
